--- a/NEW HR/TIMPLE, ALLAN.xlsx
+++ b/NEW HR/TIMPLE, ALLAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>1/4-6/2023</t>
+  </si>
+  <si>
+    <t>2/22,23/2023</t>
   </si>
 </sst>
 </file>
@@ -629,14 +632,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -646,9 +652,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1539,9 +1542,9 @@
   <dimension ref="A2:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,14 +1574,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1590,16 +1593,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>37097</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1613,14 +1616,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1653,18 +1656,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1711,7 +1714,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1721,7 +1724,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>63.5</v>
+        <v>62.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3167,7 +3170,9 @@
       <c r="A79" s="40">
         <v>44958</v>
       </c>
-      <c r="B79" s="21"/>
+      <c r="B79" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="C79" s="14">
         <v>1.25</v>
       </c>
@@ -3178,21 +3183,29 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H79" s="39"/>
+      <c r="H79" s="39">
+        <v>2</v>
+      </c>
       <c r="I79" s="10"/>
       <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
+      <c r="K79" s="21" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>44986</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="10"/>
@@ -3905,17 +3918,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3953,7 +3966,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="D76" sqref="D76"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3983,14 +3996,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4002,16 +4015,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>37097</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4025,14 +4038,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4065,18 +4078,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
